--- a/yahoo.r.xlsx
+++ b/yahoo.r.xlsx
@@ -37,12 +37,18 @@
     <t>楽天</t>
   </si>
   <si>
+    <t>する</t>
+  </si>
+  <si>
     <t>金</t>
   </si>
   <si>
     <t>幹部</t>
   </si>
   <si>
+    <t>し</t>
+  </si>
+  <si>
     <t>違約</t>
   </si>
   <si>
@@ -52,12 +58,18 @@
     <t>料</t>
   </si>
   <si>
+    <t>縛り</t>
+  </si>
+  <si>
     <t>力</t>
   </si>
   <si>
     <t>社</t>
   </si>
   <si>
+    <t>入れる</t>
+  </si>
+  <si>
     <t>年</t>
   </si>
   <si>
@@ -67,12 +79,21 @@
     <t>3</t>
   </si>
   <si>
+    <t>ある</t>
+  </si>
+  <si>
+    <t>流出</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
     <t>億</t>
   </si>
   <si>
+    <t>得</t>
+  </si>
+  <si>
     <t>乗り換え</t>
   </si>
   <si>
@@ -94,27 +115,27 @@
     <t>総務</t>
   </si>
   <si>
-    <t>流出</t>
-  </si>
-  <si>
     <t>者</t>
   </si>
   <si>
+    <t>値下げ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>感</t>
   </si>
   <si>
-    <t>値下げ</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>競争</t>
   </si>
   <si>
     <t>解約</t>
   </si>
   <si>
+    <t>呼ば</t>
+  </si>
+  <si>
     <t>KDDI</t>
   </si>
   <si>
@@ -130,13 +151,22 @@
     <t>26</t>
   </si>
   <si>
+    <t>国内</t>
+  </si>
+  <si>
     <t>(</t>
   </si>
   <si>
+    <t>れれ</t>
+  </si>
+  <si>
     <t>業種</t>
   </si>
   <si>
-    <t>国内</t>
+    <t>質</t>
+  </si>
+  <si>
+    <t>各社</t>
   </si>
   <si>
     <t>確実</t>
@@ -145,6 +175,9 @@
     <t>水</t>
   </si>
   <si>
+    <t>なる</t>
+  </si>
+  <si>
     <t>核</t>
   </si>
   <si>
@@ -181,6 +214,9 @@
     <t>協力</t>
   </si>
   <si>
+    <t>漏れる</t>
+  </si>
+  <si>
     <t>電子</t>
   </si>
   <si>
@@ -223,12 +259,24 @@
     <t>高額</t>
   </si>
   <si>
+    <t>応ぜ</t>
+  </si>
+  <si>
     <t>営業</t>
   </si>
   <si>
+    <t>あり</t>
+  </si>
+  <si>
     <t>インターネット</t>
   </si>
   <si>
+    <t>見込め</t>
+  </si>
+  <si>
+    <t>伴う</t>
+  </si>
+  <si>
     <t>ため</t>
   </si>
   <si>
@@ -244,76 +292,28 @@
     <t>可能</t>
   </si>
   <si>
+    <t>高める</t>
+  </si>
+  <si>
     <t>鍵</t>
   </si>
   <si>
+    <t>神経</t>
+  </si>
+  <si>
     <t>容易</t>
   </si>
   <si>
+    <t>掛かる</t>
+  </si>
+  <si>
+    <t>想定</t>
+  </si>
+  <si>
     <t>水準</t>
   </si>
   <si>
     <t>月</t>
-  </si>
-  <si>
-    <t>会員</t>
-  </si>
-  <si>
-    <t>多様</t>
-  </si>
-  <si>
-    <t>ドコモ</t>
-  </si>
-  <si>
-    <t>以降</t>
-  </si>
-  <si>
-    <t>各社</t>
-  </si>
-  <si>
-    <t>方針</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>飽和</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>モバイル</t>
-  </si>
-  <si>
-    <t>引き下げ</t>
-  </si>
-  <si>
-    <t>成長</t>
-  </si>
-  <si>
-    <t>業界</t>
-  </si>
-  <si>
-    <t>9500</t>
-  </si>
-  <si>
-    <t>販売</t>
-  </si>
-  <si>
-    <t>こと</t>
-  </si>
-  <si>
-    <t>圏</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>代わり</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -744,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -920,7 +920,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -928,7 +928,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -936,7 +936,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -944,7 +944,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -952,7 +952,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -960,7 +960,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
